--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/PackingList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/PackingList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/local/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanbaiKanri_1.3.8\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9928E63-E45C-A040-9A82-EF97DBBE10B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB63F223-1DC9-42BC-B8E0-DF2B45D4D20A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="20300" windowHeight="18920" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="20304" windowHeight="18924" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,25 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
-    <t>株式会社　全備</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Telp. 086-244-0001 Fax. 086-243-9216</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>北区新屋敷町1-10-28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>700-8618 岡山県岡山市</t>
-    <rPh sb="9" eb="12">
-      <t>オカヤマケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PACKING LIST</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,6 +104,22 @@
   </si>
   <si>
     <t>Cust PO No :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -130,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,6 +359,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -379,6 +379,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>830580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>193432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE20BFF-9005-4DF0-9532-E1F063D32D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15240"/>
+          <a:ext cx="1280160" cy="635392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,26 +736,26 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="1" customWidth="1"/>
-    <col min="9" max="26" width="3.1640625" style="1"/>
-    <col min="27" max="27" width="3.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="3.1640625" style="1"/>
+    <col min="6" max="6" width="4.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.19921875" style="1" customWidth="1"/>
+    <col min="9" max="26" width="3.19921875" style="1"/>
+    <col min="27" max="27" width="3.19921875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="3.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20">
+    <row r="1" spans="1:27" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -729,9 +784,9 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -760,9 +815,9 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="32" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -791,16 +846,16 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+    <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -822,7 +877,7 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -851,9 +906,9 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="24">
+    <row r="6" spans="1:27" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A6" s="33" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -882,7 +937,7 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
     </row>
-    <row r="7" spans="1:27" ht="24">
+    <row r="7" spans="1:27" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -911,15 +966,15 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -944,15 +999,15 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="28"/>
@@ -977,13 +1032,13 @@
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1008,9 +1063,9 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1039,7 +1094,7 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1068,27 +1123,27 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1111,7 +1166,7 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -1142,7 +1197,7 @@
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -1173,7 +1228,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>3</v>
       </c>
@@ -1204,7 +1259,7 @@
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
@@ -1233,7 +1288,7 @@
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="25"/>
@@ -1262,7 +1317,7 @@
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="25"/>
@@ -1291,9 +1346,9 @@
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="25"/>
@@ -1322,7 +1377,7 @@
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4"/>
@@ -1351,15 +1406,15 @@
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1378,7 +1433,7 @@
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1402,7 +1457,7 @@
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1426,18 +1481,18 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H25" s="7"/>
       <c r="N25" s="15"/>
@@ -1455,7 +1510,7 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -1479,9 +1534,9 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -1510,7 +1565,7 @@
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1532,7 +1587,7 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
@@ -1561,7 +1616,7 @@
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="4"/>
@@ -1590,7 +1645,7 @@
       <c r="Z30" s="16"/>
       <c r="AA30" s="16"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
@@ -1619,7 +1674,7 @@
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
@@ -1648,7 +1703,7 @@
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
       <c r="C33" s="4"/>
@@ -1677,7 +1732,7 @@
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="7"/>
       <c r="C34" s="4"/>
@@ -1706,7 +1761,7 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="7"/>
       <c r="C35" s="4"/>
@@ -1735,7 +1790,7 @@
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="7"/>
       <c r="C36" s="4"/>
@@ -1764,7 +1819,7 @@
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" s="7"/>
       <c r="C37" s="4"/>
@@ -1793,7 +1848,7 @@
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" s="7"/>
       <c r="C38" s="4"/>
@@ -1822,7 +1877,7 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="7"/>
       <c r="C39" s="4"/>
@@ -1851,7 +1906,7 @@
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
       <c r="C40" s="4"/>
@@ -1880,7 +1935,7 @@
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="4"/>
       <c r="B41" s="7"/>
       <c r="C41" s="4"/>
@@ -1909,7 +1964,7 @@
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="23"/>
       <c r="B42" s="6"/>
       <c r="C42" s="23"/>
@@ -1936,7 +1991,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" s="6"/>
       <c r="C43" s="23"/>
@@ -1963,7 +2018,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
       <c r="C44" s="4"/>
@@ -1992,7 +2047,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="23"/>
       <c r="B45" s="6"/>
       <c r="C45" s="23"/>
@@ -2034,5 +2089,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/PackingList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/PackingList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayumi Kumagai\OneDrive - レビガータ株式会社\ドキュメント\販売管理\BaseXls\BaseXls_ZENBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanux\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{EB63F223-1DC9-42BC-B8E0-DF2B45D4D20A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B226BBC3-B2B9-43FF-A2F7-7DA37F173D55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F2068-F4CF-4FB4-AB40-2FBCCAAD56E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="375" windowWidth="24705" windowHeight="14295" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23955" windowHeight="14655" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Packing List No :</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Date :</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -124,6 +120,10 @@
   </si>
   <si>
     <t>Vehicle Detail :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order No :</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -725,7 +725,7 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -806,7 +806,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -837,7 +837,7 @@
     </row>
     <row r="4" spans="1:27" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -928,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="S8" s="4"/>
       <c r="U8" s="9"/>
@@ -947,7 +947,7 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="22"/>
       <c r="S9" s="4"/>
@@ -966,7 +966,7 @@
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S10" s="4"/>
       <c r="U10" s="9"/>
@@ -982,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S11" s="4"/>
       <c r="U11" s="9"/>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="19"/>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
